--- a/biology/Zoologie/Girardinus/Girardinus.xlsx
+++ b/biology/Zoologie/Girardinus/Girardinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Girardinus regroupe plusieurs espèces de poissons de la famille des Poeciliidae.
 Le genre Girardichthys, synonyme de Girardinus, n'est plus une appellation valide. Il ne concernait que Girardichthys falcatus Eigenmann, 1903.  
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Girardinus creolus - Garman, 1895
 Girardinus cubensis - (Eigenmann, 1903)
@@ -548,7 +562,9 @@
           <t>Guppy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le guppy, poisson bien connu des aquariophiles, a été classé plusieurs fois sous le genre Girardinus et sous plusieurs appellations différentes avant d'être classé sous le genre Poecilia.
 Les appellations suivantes sont par conséquent non valides :
